--- a/SourceCode/2024/April 2024/Ramya/Task5_REF_Uppercase_Generator/Data/Input.xlsx
+++ b/SourceCode/2024/April 2024/Ramya/Task5_REF_Uppercase_Generator/Data/Input.xlsx
@@ -435,7 +435,7 @@
   <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2"/>
+      <x:selection activeCell="A2" sqref="A2 A2:A9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
